--- a/docs/paper_experiment/FN/FN_each_birthmark.xlsx
+++ b/docs/paper_experiment/FN/FN_each_birthmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamadalab/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/FN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73A01B8-93BD-A547-8BD5-97DF700F6054}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8E1FD4-55E9-8E48-A6B3-FD09988F19E1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50960" yWindow="-18880" windowWidth="27900" windowHeight="16500" activeTab="6" xr2:uid="{E3283A29-F980-5A4F-B8BD-D15A277E7FE8}"/>
+    <workbookView xWindow="50940" yWindow="-18880" windowWidth="27900" windowHeight="16500" activeTab="6" xr2:uid="{E3283A29-F980-5A4F-B8BD-D15A277E7FE8}"/>
   </bookViews>
   <sheets>
     <sheet name="2gram" sheetId="1" r:id="rId1"/>
@@ -31,22 +31,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>pre</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>and</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>FN</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2-gram</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3-gram</t>
@@ -62,14 +62,365 @@
   </si>
   <si>
     <t>UC</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=0.9</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=0.8</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=0.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=0.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=0.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=0.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=0.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,6 +444,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック (本文)"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,15 +472,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -142,6 +502,3076 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本ちゃん!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2-gram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>本ちゃん!$B$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>εn=0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>εn=0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>εn=0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>εn=0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>εn=0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>εn=0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>εn=0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>εn=0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>εn=0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>εn=0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本ちゃん!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.13354927120966742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0306465678335606E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9831817615542118E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CDC-894C-A9E8-BCE7FC394D0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本ちゃん!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3-gram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>本ちゃん!$B$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>εn=0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>εn=0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>εn=0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>εn=0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>εn=0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>εn=0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>εn=0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>εn=0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>εn=0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>εn=0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本ちゃん!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.2494608195542773E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.470165348670065E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7972681524081047E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CDC-894C-A9E8-BCE7FC394D0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本ちゃん!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4-gram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>本ちゃん!$B$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>εn=0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>εn=0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>εn=0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>εn=0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>εn=0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>εn=0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>εn=0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>εn=0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>εn=0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>εn=0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本ちゃん!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.8817204301075279E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0752688172043223E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7CDC-894C-A9E8-BCE7FC394D0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本ちゃん!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5-gram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>本ちゃん!$B$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>εn=0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>εn=0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>εn=0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>εn=0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>εn=0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>εn=0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>εn=0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>εn=0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>εn=0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>εn=0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本ちゃん!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.0250662810315752E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8204386599182136E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7CDC-894C-A9E8-BCE7FC394D0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本ちゃん!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6-gram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>本ちゃん!$B$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>εn=0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>εn=0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>εn=0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>εn=0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>εn=0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>εn=0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>εn=0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>εn=0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>εn=0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>εn=0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本ちゃん!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.4700988039521588E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7CDC-894C-A9E8-BCE7FC394D0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本ちゃん!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>本ちゃん!$B$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>εn=0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>εn=0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>εn=0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>εn=0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>εn=0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>εn=0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>εn=0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>εn=0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>εn=0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>εn=0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本ちゃん!$B$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.4023806745244789E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1086474501108556E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3339946318123861E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7CDC-894C-A9E8-BCE7FC394D0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="393661215"/>
+        <c:axId val="393707327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="393661215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393707327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="393707327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393661215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本ちゃん!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2-gram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>本ちゃん!$B$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本ちゃん!$B$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.13354927120966742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0306465678335606E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9831817615542118E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40C5-0D4B-B11C-AD6A25D2012F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本ちゃん!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3-gram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>本ちゃん!$B$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本ちゃん!$B$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.2494608195542773E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.470165348670065E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7972681524081047E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-40C5-0D4B-B11C-AD6A25D2012F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本ちゃん!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4-gram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>本ちゃん!$B$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本ちゃん!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.8817204301075279E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0752688172043223E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-40C5-0D4B-B11C-AD6A25D2012F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本ちゃん!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5-gram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>本ちゃん!$B$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本ちゃん!$B$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.0250662810315752E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8204386599182136E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-40C5-0D4B-B11C-AD6A25D2012F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本ちゃん!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6-gram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>本ちゃん!$B$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本ちゃん!$B$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.4700988039521588E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-40C5-0D4B-B11C-AD6A25D2012F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本ちゃん!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>本ちゃん!$B$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本ちゃん!$B$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.4023806745244789E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1086474501108556E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3339946318123861E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-40C5-0D4B-B11C-AD6A25D2012F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="819647519"/>
+        <c:axId val="392931119"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="819647519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>閾値</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392931119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="392931119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>FN</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="819647519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D48BD3-CF71-8449-9C34-C77F1E09C6AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F56B598-977A-3347-BE87-08E248176548}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -683,7 +4113,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -933,7 +4363,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1182,7 +4612,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1431,7 +4861,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1680,7 +5110,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1929,51 +5359,54 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A26DF7E-FF07-AD40-8578-FC4A26A7AE6A}">
-  <dimension ref="A2:J8"/>
+  <dimension ref="A2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="2" spans="1:10">
-      <c r="B2">
-        <v>0.9</v>
-      </c>
-      <c r="C2">
-        <v>0.8</v>
-      </c>
-      <c r="D2">
-        <v>0.7</v>
-      </c>
-      <c r="E2">
-        <v>0.6</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
-      </c>
-      <c r="G2">
-        <v>0.4</v>
-      </c>
-      <c r="H2">
-        <v>0.3</v>
-      </c>
-      <c r="I2">
-        <v>0.2</v>
-      </c>
-      <c r="J2">
-        <v>0.1</v>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +5437,11 @@
       <c r="J3" s="1">
         <v>0</v>
       </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2036,8 +5472,11 @@
       <c r="J4" s="1">
         <v>0</v>
       </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2068,8 +5507,11 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2100,8 +5542,11 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2132,8 +5577,11 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2164,9 +5612,255 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.13354927120966742</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.0306465678335606E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4.9831817615542118E-4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8.2494608195542773E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6.470165348670065E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.7972681524081047E-4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4.8817204301075279E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.0752688172043223E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4.0250662810315752E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4.8204386599182136E-4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.4700988039521588E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8.4023806745244789E-3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.1086474501108556E-3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.3339946318123861E-4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>